--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR004_v3.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR004_v3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30211746-EB94-41F5-B274-FD15B1D7F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20376" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -72,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm"/>
@@ -489,7 +483,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_年間勤務台帳" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_年間勤務台帳" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -861,14 +855,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF4F81BD"/>
   </sheetPr>
@@ -876,10 +870,10 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="10.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="10.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1024" width="5.42578125" style="1"/>
-    <col min="1025" max="16384" width="5.42578125" style="2"/>
+    <col min="1" max="1024" width="5.44140625" style="1"/>
+    <col min="1025" max="16384" width="5.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="10.5" customHeight="1">
@@ -2349,7 +2343,7 @@
     <mergeCell ref="O4:P4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>